--- a/age_diversity_neighborhood_2023.03.16.xlsx
+++ b/age_diversity_neighborhood_2023.03.16.xlsx
@@ -157,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,8 +173,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +191,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,10 +210,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,21 +224,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -325,9 +336,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$1:$R$1</c:f>
+              <c:f>Sheet1!$K$1:$T$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>age_decades_0_to_9</c:v>
                 </c:pt>
@@ -337,22 +348,22 @@
                 <c:pt idx="2">
                   <c:v>age_decades_20_to_29</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>age_decades_30_to_39</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>age_decades_40_to_49</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>age_decades_50_to_59</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>age_decades_60_to_69</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>age_decades_70_to_79</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>age_decades_80_and_over</c:v>
                 </c:pt>
               </c:strCache>
@@ -360,10 +371,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$11:$R$11</c:f>
+              <c:f>Sheet1!$K$11:$T$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>583</c:v>
                 </c:pt>
@@ -373,22 +384,25 @@
                 <c:pt idx="2">
                   <c:v>14564</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0%">
+                  <c:v>0.43885976013981798</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4316</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1316</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1069</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>963</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>741</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>459</c:v>
                 </c:pt>
               </c:numCache>
@@ -404,11 +418,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="726162928"/>
-        <c:axId val="726153912"/>
+        <c:axId val="502545232"/>
+        <c:axId val="502547976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="726162928"/>
+        <c:axId val="502545232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,7 +465,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726153912"/>
+        <c:crossAx val="502547976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -459,7 +473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="726153912"/>
+        <c:axId val="502547976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -510,7 +524,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726162928"/>
+        <c:crossAx val="502545232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1108,16 +1122,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1426,15 +1440,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.140625" style="7"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1447,56 +1464,57 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1509,60 +1527,68 @@
       <c r="D2" s="4">
         <v>17476</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="8">
+        <f>D2/B2</f>
+        <v>0.75982608695652176</v>
+      </c>
+      <c r="F2" s="4">
         <v>2914</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>1309</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>1301</v>
       </c>
-      <c r="H2" s="2">
-        <f>G2/B2</f>
+      <c r="I2" s="2">
+        <f>H2/B2</f>
         <v>5.6565217391304351E-2</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>21699</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>582</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>3641</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>11839</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="5">
+        <f>M2/B2</f>
+        <v>0.51473913043478259</v>
+      </c>
+      <c r="O2" s="2">
         <v>3718</v>
       </c>
-      <c r="N2" s="2">
+      <c r="P2" s="2">
         <v>1136</v>
       </c>
-      <c r="O2" s="2">
+      <c r="Q2" s="2">
         <v>775</v>
       </c>
-      <c r="P2" s="2">
+      <c r="R2" s="2">
         <v>603</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="S2" s="2">
         <v>404</v>
       </c>
-      <c r="R2" s="2">
+      <c r="T2" s="2">
         <v>302</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>0.40017381096408311</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>0.1067311871455576</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>0.67846843100189036</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1575,60 +1601,68 @@
       <c r="D3" s="4">
         <v>8769</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E25" si="0">D3/B3</f>
+        <v>0.50157295658639822</v>
+      </c>
+      <c r="F3" s="4">
         <v>4504</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>3103</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>1107</v>
       </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H25" si="0">G3/B3</f>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I25" si="1">H3/B3</f>
         <v>6.3318652405193618E-2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>16376</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>641</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1571</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>4975</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N25" si="2">M3/B3</f>
+        <v>0.28456214608476804</v>
+      </c>
+      <c r="O3" s="2">
         <v>3885</v>
       </c>
-      <c r="N3" s="2">
+      <c r="P3" s="2">
         <v>1516</v>
       </c>
-      <c r="O3" s="2">
+      <c r="Q3" s="2">
         <v>1792</v>
       </c>
-      <c r="P3" s="2">
+      <c r="R3" s="2">
         <v>1398</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="S3" s="2">
         <v>1177</v>
       </c>
-      <c r="R3" s="2">
+      <c r="T3" s="2">
         <v>528</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>0.64654485334294343</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>0.1186188013255678</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>0.83036181323857283</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1641,60 +1675,68 @@
       <c r="D4" s="4">
         <v>3586</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.43173609438959787</v>
+      </c>
+      <c r="F4" s="4">
         <v>2219</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>1852</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>649</v>
       </c>
-      <c r="H4" s="2">
-        <f t="shared" si="0"/>
+      <c r="I4" s="2">
+        <f t="shared" si="1"/>
         <v>7.8136287021430287E-2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>7657</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>290</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>375</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>2253</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="5">
+        <f t="shared" si="2"/>
+        <v>0.27124969901276186</v>
+      </c>
+      <c r="O4" s="2">
         <v>1946</v>
       </c>
-      <c r="N4" s="2">
+      <c r="P4" s="2">
         <v>737</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Q4" s="2">
         <v>853</v>
       </c>
-      <c r="P4" s="2">
+      <c r="R4" s="2">
         <v>948</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="S4" s="2">
         <v>685</v>
       </c>
-      <c r="R4" s="2">
+      <c r="T4" s="2">
         <v>219</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>0.6864099703323554</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>0.14406201534386989</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>0.82933207532795217</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1707,60 +1749,68 @@
       <c r="D5" s="4">
         <v>29105</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.58675886539120614</v>
+      </c>
+      <c r="F5" s="4">
         <v>9483</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>7013</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>4002</v>
       </c>
-      <c r="H5" s="2">
-        <f t="shared" si="0"/>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
         <v>8.0680603995726061E-2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>45601</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>2267</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>3522</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>20653</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.41636594560812856</v>
+      </c>
+      <c r="O5" s="2">
         <v>9646</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="2">
         <v>3266</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <v>3236</v>
       </c>
-      <c r="P5" s="2">
+      <c r="R5" s="2">
         <v>2902</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="S5" s="2">
         <v>2338</v>
       </c>
-      <c r="R5" s="2">
+      <c r="T5" s="2">
         <v>1773</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>0.59266663106326256</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>0.14834248826922189</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>0.76617954119769593</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1773,60 +1823,68 @@
       <c r="D6" s="4">
         <v>5811</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28469942677967763</v>
+      </c>
+      <c r="F6" s="4">
         <v>6825</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>3696</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>4079</v>
       </c>
-      <c r="H6" s="2">
-        <f t="shared" si="0"/>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
         <v>0.1998432217921709</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>16332</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>3038</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1218</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>2879</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14105139385625398</v>
+      </c>
+      <c r="O6" s="2">
         <v>4880</v>
       </c>
-      <c r="N6" s="2">
+      <c r="P6" s="2">
         <v>2442</v>
       </c>
-      <c r="O6" s="2">
+      <c r="Q6" s="2">
         <v>2258</v>
       </c>
-      <c r="P6" s="2">
+      <c r="R6" s="2">
         <v>2022</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="S6" s="2">
         <v>1080</v>
       </c>
-      <c r="R6" s="2">
+      <c r="T6" s="2">
         <v>594</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>0.73441038484147103</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>0.31981181699179212</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>0.85721463463332803</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1839,60 +1897,68 @@
       <c r="D7" s="4">
         <v>1584</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.37000700770847933</v>
+      </c>
+      <c r="F7" s="4">
         <v>1199</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>598</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>900</v>
       </c>
-      <c r="H7" s="2">
-        <f t="shared" si="0"/>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
         <v>0.21023125437981779</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>3381</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>651</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>268</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>986</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2303200186872226</v>
+      </c>
+      <c r="O7" s="2">
         <v>837</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>397</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>544</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>229</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>132</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>237</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>0.7209433140606345</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>0.33206814812341218</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>0.85005866493631976</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1905,60 +1971,68 @@
       <c r="D8" s="4">
         <v>36148</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28949665638889999</v>
+      </c>
+      <c r="F8" s="4">
         <v>40184</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>21199</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>27334</v>
       </c>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
         <v>0.21890842109478237</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>97531</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>13745</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>17289</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>21254</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17021583309974772</v>
+      </c>
+      <c r="O8" s="2">
         <v>20364</v>
       </c>
-      <c r="N8" s="2">
+      <c r="P8" s="2">
         <v>15449</v>
       </c>
-      <c r="O8" s="2">
+      <c r="Q8" s="2">
         <v>15565</v>
       </c>
-      <c r="P8" s="2">
+      <c r="R8" s="2">
         <v>10855</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="S8" s="2">
         <v>7622</v>
       </c>
-      <c r="R8" s="2">
+      <c r="T8" s="2">
         <v>2722</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>0.73587928463721886</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>0.34197504853714361</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>0.87053422801338542</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1971,60 +2045,68 @@
       <c r="D9" s="4">
         <v>6159</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.500121802679659</v>
+      </c>
+      <c r="F9" s="4">
         <v>2643</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>2949</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>564</v>
       </c>
-      <c r="H9" s="2">
-        <f t="shared" si="0"/>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
         <v>4.5797807551766136E-2</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>11751</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>354</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>2525</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>2978</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.24181892001624036</v>
+      </c>
+      <c r="O9" s="2">
         <v>1451</v>
       </c>
-      <c r="N9" s="2">
+      <c r="P9" s="2">
         <v>1038</v>
       </c>
-      <c r="O9" s="2">
+      <c r="Q9" s="2">
         <v>1020</v>
       </c>
-      <c r="P9" s="2">
+      <c r="R9" s="2">
         <v>1480</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="S9" s="2">
         <v>863</v>
       </c>
-      <c r="R9" s="2">
+      <c r="T9" s="2">
         <v>606</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>0.64437753786490726</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>8.7400736750435026E-2</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>0.84903605435145801</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2037,60 +2119,68 @@
       <c r="D10" s="4">
         <v>15527</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.34124524735720096</v>
+      </c>
+      <c r="F10" s="4">
         <v>15643</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>5787</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>8544</v>
       </c>
-      <c r="H10" s="2">
-        <f t="shared" si="0"/>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
         <v>0.18777609283312455</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>36957</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>4717</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>4518</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>8680</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19076503813103007</v>
+      </c>
+      <c r="O10" s="2">
         <v>9696</v>
       </c>
-      <c r="N10" s="2">
+      <c r="P10" s="2">
         <v>6521</v>
       </c>
-      <c r="O10" s="2">
+      <c r="Q10" s="2">
         <v>5582</v>
       </c>
-      <c r="P10" s="2">
+      <c r="R10" s="2">
         <v>3440</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="S10" s="2">
         <v>1429</v>
       </c>
-      <c r="R10" s="2">
+      <c r="T10" s="2">
         <v>918</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>0.71392128991604697</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>0.30503246358690073</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>0.85489455174056128</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2103,60 +2193,68 @@
       <c r="D11" s="4">
         <v>26080</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.78587356114023987</v>
+      </c>
+      <c r="F11" s="4">
         <v>3948</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>2163</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>995</v>
       </c>
-      <c r="H11" s="2">
-        <f t="shared" si="0"/>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
         <v>2.9982522750557464E-2</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>32191</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>583</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>9175</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>14564</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="5">
+        <f t="shared" si="2"/>
+        <v>0.43885976013981798</v>
+      </c>
+      <c r="O11" s="2">
         <v>4316</v>
       </c>
-      <c r="N11" s="2">
+      <c r="P11" s="2">
         <v>1316</v>
       </c>
-      <c r="O11" s="2">
+      <c r="Q11" s="2">
         <v>1069</v>
       </c>
-      <c r="P11" s="2">
+      <c r="R11" s="2">
         <v>963</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="S11" s="2">
         <v>741</v>
       </c>
-      <c r="R11" s="2">
+      <c r="T11" s="2">
         <v>459</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>0.36310274272526832</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>5.8167142160139518E-2</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>0.70960034783865822</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2169,60 +2267,68 @@
       <c r="D12" s="4">
         <v>8824</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22654103874098225</v>
+      </c>
+      <c r="F12" s="4">
         <v>13280</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>8996</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>7851</v>
       </c>
-      <c r="H12" s="2">
-        <f t="shared" si="0"/>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
         <v>0.20156093553438936</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>31100</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>4442</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>4133</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>5489</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14092064388590794</v>
+      </c>
+      <c r="O12" s="2">
         <v>5835</v>
       </c>
-      <c r="N12" s="2">
+      <c r="P12" s="2">
         <v>5367</v>
       </c>
-      <c r="O12" s="2">
+      <c r="Q12" s="2">
         <v>4689</v>
       </c>
-      <c r="P12" s="2">
+      <c r="R12" s="2">
         <v>5060</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="S12" s="2">
         <v>2501</v>
       </c>
-      <c r="R12" s="2">
+      <c r="T12" s="2">
         <v>1435</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>0.73847039367337564</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>0.32186824960178217</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>0.87760279866678825</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -2235,60 +2341,68 @@
       <c r="D13" s="4">
         <v>13873</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.32818414080242242</v>
+      </c>
+      <c r="F13" s="4">
         <v>13075</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>7962</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>7362</v>
       </c>
-      <c r="H13" s="2">
-        <f t="shared" si="0"/>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
         <v>0.17415783497350493</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>34910</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>4717</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>3091</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>7402</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17510408781226344</v>
+      </c>
+      <c r="O13" s="2">
         <v>9603</v>
       </c>
-      <c r="N13" s="2">
+      <c r="P13" s="2">
         <v>5125</v>
       </c>
-      <c r="O13" s="2">
+      <c r="Q13" s="2">
         <v>4372</v>
       </c>
-      <c r="P13" s="2">
+      <c r="R13" s="2">
         <v>4397</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="S13" s="2">
         <v>2260</v>
       </c>
-      <c r="R13" s="2">
+      <c r="T13" s="2">
         <v>1305</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>0.73081743562006563</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>0.28765376698169282</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>0.85990668409617599</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2301,60 +2415,68 @@
       <c r="D14" s="4">
         <v>5169</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>0.96185336806847788</v>
+      </c>
+      <c r="F14" s="4">
         <v>64</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>35</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>106</v>
       </c>
-      <c r="H14" s="2">
-        <f t="shared" si="0"/>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
         <v>1.9724599925567549E-2</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>5268</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>22</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>2908</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>2240</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.41682173427614438</v>
+      </c>
+      <c r="O14" s="2">
         <v>130</v>
       </c>
-      <c r="N14" s="2">
+      <c r="P14" s="2">
         <v>21</v>
       </c>
-      <c r="O14" s="2">
+      <c r="Q14" s="2">
         <v>18</v>
       </c>
-      <c r="P14" s="2">
+      <c r="R14" s="2">
         <v>13</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="S14" s="2">
         <v>5</v>
       </c>
-      <c r="R14" s="2">
+      <c r="T14" s="2">
         <v>17</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>7.4264792549663228E-2</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>3.8671080166687632E-2</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>0.53279937905550567</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2367,60 +2489,68 @@
       <c r="D15" s="4">
         <v>6521</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24207439305070905</v>
+      </c>
+      <c r="F15" s="4">
         <v>8881</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>5097</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>6439</v>
       </c>
-      <c r="H15" s="2">
-        <f t="shared" si="0"/>
+      <c r="I15" s="2">
+        <f t="shared" si="1"/>
         <v>0.23903036602568861</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>20499</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>3457</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>3581</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>3770</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.13995099858935334</v>
+      </c>
+      <c r="O15" s="2">
         <v>4076</v>
       </c>
-      <c r="N15" s="2">
+      <c r="P15" s="2">
         <v>3326</v>
       </c>
-      <c r="O15" s="2">
+      <c r="Q15" s="2">
         <v>3631</v>
       </c>
-      <c r="P15" s="2">
+      <c r="R15" s="2">
         <v>2878</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="S15" s="2">
         <v>1384</v>
       </c>
-      <c r="R15" s="2">
+      <c r="T15" s="2">
         <v>835</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>0.73977232656311387</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>0.36378970028662788</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>0.87495024156382317</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2433,60 +2563,68 @@
       <c r="D16" s="4">
         <v>9020</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>0.57558547635760327</v>
+      </c>
+      <c r="F16" s="4">
         <v>2806</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>2195</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>1650</v>
       </c>
-      <c r="H16" s="2">
-        <f t="shared" si="0"/>
+      <c r="I16" s="2">
+        <f t="shared" si="1"/>
         <v>0.1052900261629762</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>14021</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>805</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <v>2103</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>6832</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.43596452045178991</v>
+      </c>
+      <c r="O16" s="2">
         <v>1636</v>
       </c>
-      <c r="N16" s="2">
+      <c r="P16" s="2">
         <v>748</v>
       </c>
-      <c r="O16" s="2">
+      <c r="Q16" s="2">
         <v>1352</v>
       </c>
-      <c r="P16" s="2">
+      <c r="R16" s="2">
         <v>1073</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="S16" s="2">
         <v>548</v>
       </c>
-      <c r="R16" s="2">
+      <c r="T16" s="2">
         <v>574</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>0.60593506787868967</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>0.18840807310715199</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>0.76141455533468594</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2499,60 +2637,68 @@
       <c r="D17" s="4">
         <v>5662</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.57191919191919194</v>
+      </c>
+      <c r="F17" s="4">
         <v>2342</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>1429</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>467</v>
       </c>
-      <c r="H17" s="2">
-        <f t="shared" si="0"/>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
         <v>4.717171717171717E-2</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <v>9433</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>425</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="2">
         <v>48</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <v>4150</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.41919191919191917</v>
+      </c>
+      <c r="O17" s="2">
         <v>2457</v>
       </c>
-      <c r="N17" s="2">
+      <c r="P17" s="2">
         <v>631</v>
       </c>
-      <c r="O17" s="2">
+      <c r="Q17" s="2">
         <v>760</v>
       </c>
-      <c r="P17" s="2">
+      <c r="R17" s="2">
         <v>688</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="S17" s="2">
         <v>549</v>
       </c>
-      <c r="R17" s="2">
+      <c r="T17" s="2">
         <v>192</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>0.59388493010917254</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>8.9893092541577513E-2</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>0.74258087950209162</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2565,60 +2711,68 @@
       <c r="D18" s="4">
         <v>7149</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22627714122934733</v>
+      </c>
+      <c r="F18" s="4">
         <v>11735</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>5969</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>6741</v>
       </c>
-      <c r="H18" s="2">
-        <f t="shared" si="0"/>
+      <c r="I18" s="2">
+        <f t="shared" si="1"/>
         <v>0.21336329682851174</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>24853</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>3748</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="2">
         <v>3593</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <v>3538</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1119832879660695</v>
+      </c>
+      <c r="O18" s="2">
         <v>5965</v>
       </c>
-      <c r="N18" s="2">
+      <c r="P18" s="2">
         <v>4370</v>
       </c>
-      <c r="O18" s="2">
+      <c r="Q18" s="2">
         <v>4411</v>
       </c>
-      <c r="P18" s="2">
+      <c r="R18" s="2">
         <v>3615</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="S18" s="2">
         <v>1392</v>
       </c>
-      <c r="R18" s="2">
+      <c r="T18" s="2">
         <v>962</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>0.72961966582976956</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>0.33567880078996032</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>0.87022293824122265</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2631,60 +2785,68 @@
       <c r="D19" s="4">
         <v>18021</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.33747822992939941</v>
+      </c>
+      <c r="F19" s="4">
         <v>15567</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>9545</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>10266</v>
       </c>
-      <c r="H19" s="2">
-        <f t="shared" si="0"/>
+      <c r="I19" s="2">
+        <f t="shared" si="1"/>
         <v>0.19225079121331859</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <v>43133</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>5301</v>
       </c>
-      <c r="K19" s="2">
+      <c r="L19" s="2">
         <v>7422</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M19" s="2">
         <v>11156</v>
       </c>
-      <c r="M19" s="2">
+      <c r="N19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.20891776999569281</v>
+      </c>
+      <c r="O19" s="2">
         <v>7628</v>
       </c>
-      <c r="N19" s="2">
+      <c r="P19" s="2">
         <v>5816</v>
       </c>
-      <c r="O19" s="2">
+      <c r="Q19" s="2">
         <v>6531</v>
       </c>
-      <c r="P19" s="2">
+      <c r="R19" s="2">
         <v>5309</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="S19" s="2">
         <v>2532</v>
       </c>
-      <c r="R19" s="2">
+      <c r="T19" s="2">
         <v>1704</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>0.73221173304467646</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>0.31058084898234323</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>0.86680148113011235</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2697,60 +2859,68 @@
       <c r="D20" s="4">
         <v>16108</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.45675721658254409</v>
+      </c>
+      <c r="F20" s="4">
         <v>10183</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>4834</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>4141</v>
       </c>
-      <c r="H20" s="2">
-        <f t="shared" si="0"/>
+      <c r="I20" s="2">
+        <f t="shared" si="1"/>
         <v>0.11742187943061305</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <v>31125</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>2835</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="2">
         <v>1598</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>10358</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="5">
+        <f t="shared" si="2"/>
+        <v>0.293710656156071</v>
+      </c>
+      <c r="O20" s="2">
         <v>9027</v>
       </c>
-      <c r="N20" s="2">
+      <c r="P20" s="2">
         <v>3528</v>
       </c>
-      <c r="O20" s="2">
+      <c r="Q20" s="2">
         <v>3086</v>
       </c>
-      <c r="P20" s="2">
+      <c r="R20" s="2">
         <v>2675</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="S20" s="2">
         <v>1251</v>
       </c>
-      <c r="R20" s="2">
+      <c r="T20" s="2">
         <v>908</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>0.67542044672076029</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>0.20726796332319131</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>0.81435819886402694</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2763,60 +2933,68 @@
       <c r="D21" s="4">
         <v>1715</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.37396423898822501</v>
+      </c>
+      <c r="F21" s="4">
         <v>1988</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>633</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>250</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" si="0"/>
+      <c r="I21" s="2">
+        <f t="shared" si="1"/>
         <v>5.4513737461840385E-2</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <v>4336</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <v>238</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
         <v>82</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <v>1033</v>
       </c>
-      <c r="M21" s="2">
+      <c r="N21" s="5">
+        <f t="shared" si="2"/>
+        <v>0.22525076319232445</v>
+      </c>
+      <c r="O21" s="2">
         <v>1114</v>
       </c>
-      <c r="N21" s="2">
+      <c r="P21" s="2">
         <v>770</v>
       </c>
-      <c r="O21" s="2">
+      <c r="Q21" s="2">
         <v>716</v>
       </c>
-      <c r="P21" s="2">
+      <c r="R21" s="2">
         <v>483</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="S21" s="2">
         <v>129</v>
       </c>
-      <c r="R21" s="2">
+      <c r="T21" s="2">
         <v>21</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>0.6502106659966842</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>0.103083979779564</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>0.82277068055777181</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2829,60 +3007,68 @@
       <c r="D22" s="4">
         <v>9930</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.32986745507092319</v>
+      </c>
+      <c r="F22" s="4">
         <v>10396</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>6394</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>3383</v>
       </c>
-      <c r="H22" s="2">
-        <f t="shared" si="0"/>
+      <c r="I22" s="2">
+        <f t="shared" si="1"/>
         <v>0.11238082583131249</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <v>26720</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <v>2114</v>
       </c>
-      <c r="K22" s="2">
+      <c r="L22" s="2">
         <v>1571</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <v>5280</v>
       </c>
-      <c r="M22" s="2">
+      <c r="N22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17539780088363285</v>
+      </c>
+      <c r="O22" s="2">
         <v>6801</v>
       </c>
-      <c r="N22" s="2">
+      <c r="P22" s="2">
         <v>3286</v>
       </c>
-      <c r="O22" s="2">
+      <c r="Q22" s="2">
         <v>4657</v>
       </c>
-      <c r="P22" s="2">
+      <c r="R22" s="2">
         <v>3476</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="S22" s="2">
         <v>1873</v>
       </c>
-      <c r="R22" s="2">
+      <c r="T22" s="2">
         <v>1045</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>0.71417752686068714</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>0.19950275163356951</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>0.85628055322299201</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2895,60 +3081,68 @@
       <c r="D23" s="4">
         <v>2981</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.40431303404313035</v>
+      </c>
+      <c r="F23" s="4">
         <v>2732</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>1054</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>606</v>
       </c>
-      <c r="H23" s="2">
-        <f t="shared" si="0"/>
+      <c r="I23" s="2">
+        <f t="shared" si="1"/>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <v>6767</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <v>407</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L23" s="2">
         <v>294</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M23" s="2">
         <v>1761</v>
       </c>
-      <c r="M23" s="2">
+      <c r="N23" s="5">
+        <f t="shared" si="2"/>
+        <v>0.23884443238844433</v>
+      </c>
+      <c r="O23" s="2">
         <v>1958</v>
       </c>
-      <c r="N23" s="2">
+      <c r="P23" s="2">
         <v>935</v>
       </c>
-      <c r="O23" s="2">
+      <c r="Q23" s="2">
         <v>964</v>
       </c>
-      <c r="P23" s="2">
+      <c r="R23" s="2">
         <v>585</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="S23" s="2">
         <v>308</v>
       </c>
-      <c r="R23" s="2">
+      <c r="T23" s="2">
         <v>161</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>0.67203887542512231</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>0.15087258397447931</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>0.82609814818231608</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2961,60 +3155,68 @@
       <c r="D24" s="4">
         <v>5819</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18129985044865404</v>
+      </c>
+      <c r="F24" s="4">
         <v>10666</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <v>8498</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>7113</v>
       </c>
-      <c r="H24" s="2">
-        <f t="shared" si="0"/>
+      <c r="I24" s="2">
+        <f t="shared" si="1"/>
         <v>0.22161640079760717</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <v>24983</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <v>3955</v>
       </c>
-      <c r="K24" s="2">
+      <c r="L24" s="2">
         <v>3441</v>
       </c>
-      <c r="L24" s="2">
+      <c r="M24" s="2">
         <v>2843</v>
       </c>
-      <c r="M24" s="2">
+      <c r="N24" s="5">
+        <f t="shared" si="2"/>
+        <v>8.8578015952143568E-2</v>
+      </c>
+      <c r="O24" s="2">
         <v>4947</v>
       </c>
-      <c r="N24" s="2">
+      <c r="P24" s="2">
         <v>3823</v>
       </c>
-      <c r="O24" s="2">
+      <c r="Q24" s="2">
         <v>4589</v>
       </c>
-      <c r="P24" s="2">
+      <c r="R24" s="2">
         <v>4202</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="S24" s="2">
         <v>2791</v>
       </c>
-      <c r="R24" s="2">
+      <c r="T24" s="2">
         <v>1505</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>0.7374807108304946</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>0.34500514339024302</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <v>0.88018896404629576</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -3027,69 +3229,77 @@
       <c r="D25" s="4">
         <v>261037</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.38817411528178042</v>
+      </c>
+      <c r="F25" s="4">
         <v>193277</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>112310</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>105850</v>
       </c>
-      <c r="H25" s="2">
-        <f t="shared" si="0"/>
+      <c r="I25" s="2">
+        <f t="shared" si="1"/>
         <v>0.15740385501893009</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <v>566624</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <v>59334</v>
       </c>
-      <c r="K25" s="2">
+      <c r="L25" s="2">
         <v>77967</v>
       </c>
-      <c r="L25" s="2">
+      <c r="M25" s="2">
         <v>156913</v>
       </c>
-      <c r="M25" s="2">
+      <c r="N25" s="5">
+        <f t="shared" si="2"/>
+        <v>0.23333690224454776</v>
+      </c>
+      <c r="O25" s="2">
         <v>121916</v>
       </c>
-      <c r="N25" s="2">
+      <c r="P25" s="2">
         <v>71564</v>
       </c>
-      <c r="O25" s="2">
+      <c r="Q25" s="2">
         <v>72470</v>
       </c>
-      <c r="P25" s="2">
+      <c r="R25" s="2">
         <v>59294</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="S25" s="2">
         <v>33994</v>
       </c>
-      <c r="R25" s="2">
+      <c r="T25" s="2">
         <v>19022</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>0.71404690972371809</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>0.2652557628882195</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>0.85739041045216646</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M28">
-        <f>SUM(M11:R11)/B11</f>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <f>SUM(O11:T11)/B11</f>
         <v>0.26710058458386066</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H25">
+  <conditionalFormatting sqref="I2:I25">
+    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="0" priority="2" rank="1"/>
-    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
